--- a/Cronograma 2025.xlsx
+++ b/Cronograma 2025.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\me\Faculdade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\faculdade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4821D2C8-E1EC-4C13-84AD-D52B0375246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F690BE5-DC05-4B40-909B-BD9A2562BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Semestre 01" sheetId="1" r:id="rId1"/>
+    <sheet name="Semestre 01 - 2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>SEMANA 01</t>
   </si>
@@ -87,13 +87,34 @@
     <t>Métodos de Pesquisa e Ordenação em Estruturas de Dados</t>
   </si>
   <si>
-    <t>Estruturas de dados? Não era só aprender uma linguagem de Programação?</t>
-  </si>
-  <si>
-    <t>Falta</t>
-  </si>
-  <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Atividade 01</t>
+  </si>
+  <si>
+    <t>Atividade 02</t>
+  </si>
+  <si>
+    <t>Atividade 08</t>
+  </si>
+  <si>
+    <t>Atividade 07</t>
+  </si>
+  <si>
+    <t>Atividade 06</t>
+  </si>
+  <si>
+    <t>Atividade 05</t>
+  </si>
+  <si>
+    <t>Atividade 04</t>
+  </si>
+  <si>
+    <t>Atividade 03</t>
+  </si>
+  <si>
+    <t>Prova Final</t>
   </si>
 </sst>
 </file>
@@ -324,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,9 +361,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,6 +370,123 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,98 +496,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,91 +532,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +850,7 @@
   <dimension ref="B1:O66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,30 +865,30 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
@@ -904,365 +898,393 @@
       <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="27">
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="19">
         <v>45726</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="19">
         <v>45732</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="19">
         <v>45733</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="27">
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="19">
         <v>45733</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="19">
         <v>45739</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="19">
         <v>45764</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>22</v>
+      <c r="K6" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="27">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="19">
         <v>45740</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="19">
         <v>45746</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="19">
         <v>45764</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>22</v>
+      <c r="K8" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="24"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="72"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="27">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="19">
         <v>45747</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="19">
         <v>45753</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="19">
         <v>45764</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>22</v>
+      <c r="K10" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="29"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="10">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="9">
         <v>45754</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>45768</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>45764</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>22</v>
+      <c r="K12" s="73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="27">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="19">
         <v>45754</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="19">
         <v>45760</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="19">
         <v>45764</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>22</v>
+      <c r="K13" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="27">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="19">
         <v>45761</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="19">
         <v>45767</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="19">
         <v>45764</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>22</v>
+      <c r="K15" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="27">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="19">
         <v>45768</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="19">
         <v>45774</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23" t="s">
-        <v>21</v>
+      <c r="J17" s="19">
+        <v>45781</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="27">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="19">
         <v>45775</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="19">
         <v>45781</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
-        <v>21</v>
+      <c r="J19" s="19">
+        <v>45781</v>
+      </c>
+      <c r="K19" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="10">
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="9">
         <v>45782</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>45782</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="9" t="s">
-        <v>21</v>
+      <c r="J21" s="9">
+        <v>45781</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="10">
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="9">
         <v>45787</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
+      <c r="I22" s="9">
+        <v>45787</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="59" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1277,357 +1299,387 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="27">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="19">
         <v>45726</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="19">
         <v>45732</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="19">
         <v>45742</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="27">
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="19">
         <v>45733</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="19">
         <v>45739</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="19">
         <v>45742</v>
       </c>
-      <c r="K28" s="23" t="s">
-        <v>22</v>
+      <c r="K28" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="27">
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="19">
         <v>45740</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="19">
         <v>45746</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="19">
         <v>45764</v>
       </c>
-      <c r="K30" s="23" t="s">
-        <v>22</v>
+      <c r="K30" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="27">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="19">
         <v>45747</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="19">
         <v>45753</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="19">
         <v>45764</v>
       </c>
-      <c r="K32" s="23" t="s">
-        <v>22</v>
+      <c r="K32" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="71"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="10">
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="9">
         <v>45754</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>45768</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="9">
         <v>45764</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>22</v>
+      <c r="K34" s="73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="27">
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="19">
         <v>45754</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="19">
         <v>45760</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="19">
         <v>45764</v>
       </c>
-      <c r="K35" s="23" t="s">
-        <v>22</v>
+      <c r="K35" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="72"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="27">
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="19">
         <v>45761</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="19">
         <v>45767</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="19">
         <v>45764</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>22</v>
+      <c r="K37" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="29"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="71"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="27">
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="19">
         <v>45768</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="19">
         <v>45774</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="23" t="s">
-        <v>21</v>
+      <c r="J39" s="19">
+        <v>45781</v>
+      </c>
+      <c r="K39" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="72"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="27">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="19">
         <v>45775</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="19">
         <v>45781</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="23" t="s">
-        <v>21</v>
+      <c r="J41" s="19">
+        <v>45781</v>
+      </c>
+      <c r="K41" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="29"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="71"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="10">
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="9">
         <v>45782</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>45782</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="9" t="s">
-        <v>21</v>
+      <c r="J43" s="9">
+        <v>45781</v>
+      </c>
+      <c r="K43" s="73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="10">
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="9">
         <v>45787</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="9"/>
+      <c r="I44" s="9">
+        <v>45787</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="60"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="51" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="5" t="s">
         <v>12</v>
       </c>
@@ -1642,432 +1694,411 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="27">
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="19">
         <v>45726</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="19">
         <v>45732</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="19">
         <v>45734</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K48" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="71"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="74"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="29"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="27">
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="19">
         <v>45733</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="19">
         <v>45739</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="19">
         <v>45742</v>
       </c>
-      <c r="K50" s="23" t="s">
-        <v>22</v>
+      <c r="K50" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="74"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="29"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="71"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="27">
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="19">
         <v>45740</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="19">
         <v>45746</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="19">
         <v>45763</v>
       </c>
-      <c r="K52" s="23" t="s">
-        <v>22</v>
+      <c r="K52" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="24"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="72"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="27">
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="19">
         <v>45747</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="19">
         <v>45753</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J54" s="19">
         <v>45763</v>
       </c>
-      <c r="K54" s="23" t="s">
-        <v>22</v>
+      <c r="K54" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="29"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="71"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="10">
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="9">
         <v>45754</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <v>45768</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="9">
         <v>45763</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>22</v>
+      <c r="K56" s="73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="27">
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="19">
         <v>45754</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="19">
         <v>45760</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="19">
         <v>45763</v>
       </c>
-      <c r="K57" s="23" t="s">
-        <v>22</v>
+      <c r="K57" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="24"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="72"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="27">
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="19">
         <v>45761</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="19">
         <v>45767</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="19">
         <v>45763</v>
       </c>
-      <c r="K59" s="23" t="s">
-        <v>22</v>
+      <c r="K59" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="74"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="29"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="71"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="27">
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="19">
         <v>45768</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="19">
         <v>45774</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="23" t="s">
-        <v>21</v>
+      <c r="J61" s="19">
+        <v>45781</v>
+      </c>
+      <c r="K61" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="24"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="72"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="27">
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="19">
         <v>45775</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="19">
         <v>45781</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="23" t="s">
-        <v>21</v>
+      <c r="J63" s="19">
+        <v>45781</v>
+      </c>
+      <c r="K63" s="70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="29"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="71"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="10">
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="68"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="9">
         <v>45782</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="9">
         <v>45782</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="9" t="s">
-        <v>21</v>
+      <c r="J65" s="9">
+        <v>45781</v>
+      </c>
+      <c r="K65" s="73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="80" t="s">
+      <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="10">
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="68"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="9">
         <v>45787</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="9"/>
+      <c r="I66" s="9">
+        <v>45787</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="B52:D53"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="B54:D55"/>
-    <mergeCell ref="E54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="E48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B50:D51"/>
-    <mergeCell ref="E50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
@@ -2092,54 +2123,105 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="E48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="B52:D53"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="E54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma 2025.xlsx
+++ b/Cronograma 2025.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\faculdade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\vscode\faculdade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F690BE5-DC05-4B40-909B-BD9A2562BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D99F3-B03B-4D28-8C3A-63667BF6655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Semestre 01 - 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Semestre 02 - 2025" sheetId="2" r:id="rId1"/>
+    <sheet name="Semestre 01 - 2025" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
   <si>
     <t>SEMANA 01</t>
   </si>
@@ -115,6 +116,24 @@
   </si>
   <si>
     <t>Prova Final</t>
+  </si>
+  <si>
+    <t>Desenvolvimento para Dispositivos Móveis</t>
+  </si>
+  <si>
+    <t>MATERIAIS DE ESTUDO – SEMANA 1</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão de Serviços de Tecnologia da Informação </t>
+  </si>
+  <si>
+    <t>A nuvem que é feita de... bits e bytes? Como assim?</t>
+  </si>
+  <si>
+    <t>Aumentar o valor entregue da TI para o negócio</t>
   </si>
 </sst>
 </file>
@@ -370,113 +389,134 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,15 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,61 +536,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,11 +865,1188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0715F2-7F91-416A-B4FF-A02D2B301A47}">
+  <dimension ref="B1:K66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="25">
+        <v>45789</v>
+      </c>
+      <c r="I4" s="25">
+        <v>45795</v>
+      </c>
+      <c r="J4" s="25">
+        <v>45789</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="25">
+        <v>45796</v>
+      </c>
+      <c r="I6" s="25">
+        <v>45802</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="25">
+        <v>45803</v>
+      </c>
+      <c r="I8" s="25">
+        <v>45809</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="25">
+        <v>45810</v>
+      </c>
+      <c r="I10" s="25">
+        <v>45816</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="25">
+        <v>45817</v>
+      </c>
+      <c r="I13" s="25">
+        <v>45823</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="25">
+        <v>45824</v>
+      </c>
+      <c r="I15" s="25">
+        <v>45830</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="25">
+        <v>45831</v>
+      </c>
+      <c r="I17" s="25">
+        <v>45837</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="25">
+        <v>45838</v>
+      </c>
+      <c r="I19" s="25">
+        <v>45844</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="25">
+        <v>45789</v>
+      </c>
+      <c r="I26" s="25">
+        <v>45795</v>
+      </c>
+      <c r="J26" s="25">
+        <v>45789</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="25">
+        <v>45796</v>
+      </c>
+      <c r="I28" s="25">
+        <v>45802</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="25">
+        <v>45803</v>
+      </c>
+      <c r="I30" s="25">
+        <v>45809</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="25">
+        <v>45810</v>
+      </c>
+      <c r="I32" s="25">
+        <v>45816</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="25">
+        <v>45817</v>
+      </c>
+      <c r="I35" s="25">
+        <v>45823</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="25">
+        <v>45824</v>
+      </c>
+      <c r="I37" s="25">
+        <v>45830</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="25">
+        <v>45831</v>
+      </c>
+      <c r="I39" s="25">
+        <v>45837</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="25">
+        <v>45838</v>
+      </c>
+      <c r="I41" s="25">
+        <v>45844</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="25">
+        <v>45789</v>
+      </c>
+      <c r="I48" s="25">
+        <v>45795</v>
+      </c>
+      <c r="J48" s="25">
+        <v>45789</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="28"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="25">
+        <v>45796</v>
+      </c>
+      <c r="I50" s="25">
+        <v>45802</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="23"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="28"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="25">
+        <v>45803</v>
+      </c>
+      <c r="I52" s="25">
+        <v>45809</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="23"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="25">
+        <v>45810</v>
+      </c>
+      <c r="I54" s="25">
+        <v>45816</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="23"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="25">
+        <v>45817</v>
+      </c>
+      <c r="I57" s="25">
+        <v>45823</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="23"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="25">
+        <v>45824</v>
+      </c>
+      <c r="I59" s="25">
+        <v>45830</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="K59" s="23"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="25">
+        <v>45831</v>
+      </c>
+      <c r="I61" s="25">
+        <v>45837</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="23"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="25">
+        <v>45838</v>
+      </c>
+      <c r="I63" s="25">
+        <v>45844</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="23"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="72"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="171">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="E54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="B52:D53"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="E48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K66" sqref="B2:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,30 +2061,30 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="49" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
@@ -903,161 +2099,161 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="19">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="25">
         <v>45726</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="25">
         <v>45732</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="25">
         <v>45733</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="71"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="40" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="19">
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="25">
         <v>45733</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="25">
         <v>45739</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="25">
         <v>45764</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="71"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="19">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="25">
         <v>45740</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="25">
         <v>45746</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="25">
         <v>45764</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="72"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="19">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="25">
         <v>45747</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="25">
         <v>45753</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="25">
         <v>45764</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="71"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="9">
         <v>45754</v>
       </c>
@@ -1067,165 +2263,165 @@
       <c r="J12" s="9">
         <v>45764</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="19">
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="25">
         <v>45754</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="25">
         <v>45760</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="25">
         <v>45764</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="72"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="40" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="19">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="25">
         <v>45761</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="25">
         <v>45767</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="25">
         <v>45764</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="71"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="19">
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="25">
         <v>45768</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="25">
         <v>45774</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="25">
         <v>45781</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="72"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="40" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="19">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="25">
         <v>45775</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="25">
         <v>45781</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="25">
         <v>45781</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="71"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="67" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="9">
         <v>45782</v>
       </c>
@@ -1235,21 +2431,21 @@
       <c r="J21" s="9">
         <v>45781</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="67" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="9">
         <v>45787</v>
       </c>
@@ -1261,30 +2457,30 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="52" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1299,160 +2495,160 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="40" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="19">
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="25">
         <v>45726</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="25">
         <v>45732</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="25">
         <v>45742</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="71"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="40" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="19">
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="25">
         <v>45733</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="25">
         <v>45739</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="25">
         <v>45742</v>
       </c>
-      <c r="K28" s="70" t="s">
+      <c r="K28" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="71"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="40" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="19">
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="25">
         <v>45740</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="25">
         <v>45746</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="25">
         <v>45764</v>
       </c>
-      <c r="K30" s="70" t="s">
+      <c r="K30" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="72"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="40" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="19">
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="25">
         <v>45747</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="25">
         <v>45753</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="25">
         <v>45764</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="K32" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="71"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="67" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="9">
         <v>45754</v>
       </c>
@@ -1462,165 +2658,165 @@
       <c r="J34" s="9">
         <v>45764</v>
       </c>
-      <c r="K34" s="73" t="s">
+      <c r="K34" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="40" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="19">
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="25">
         <v>45754</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="25">
         <v>45760</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="25">
         <v>45764</v>
       </c>
-      <c r="K35" s="70" t="s">
+      <c r="K35" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="72"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="40" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="19">
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="25">
         <v>45761</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="25">
         <v>45767</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="25">
         <v>45764</v>
       </c>
-      <c r="K37" s="70" t="s">
+      <c r="K37" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="71"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="40" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="19">
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="25">
         <v>45768</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="25">
         <v>45774</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="25">
         <v>45781</v>
       </c>
-      <c r="K39" s="70" t="s">
+      <c r="K39" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="72"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="40" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="19">
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="25">
         <v>45775</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="25">
         <v>45781</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="25">
         <v>45781</v>
       </c>
-      <c r="K41" s="70" t="s">
+      <c r="K41" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="71"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="67" t="s">
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="9">
         <v>45782</v>
       </c>
@@ -1630,21 +2826,21 @@
       <c r="J43" s="9">
         <v>45781</v>
       </c>
-      <c r="K43" s="73" t="s">
+      <c r="K43" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="67" t="s">
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="9">
         <v>45787</v>
       </c>
@@ -1656,30 +2852,30 @@
     </row>
     <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="60"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="61" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="5" t="s">
         <v>12</v>
       </c>
@@ -1694,160 +2890,160 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="40" t="s">
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="19">
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="25">
         <v>45726</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="25">
         <v>45732</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="25">
         <v>45734</v>
       </c>
-      <c r="K48" s="70" t="s">
+      <c r="K48" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="71"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="40" t="s">
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="19">
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="25">
         <v>45733</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="25">
         <v>45739</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="25">
         <v>45742</v>
       </c>
-      <c r="K50" s="70" t="s">
+      <c r="K50" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="71"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="40" t="s">
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="19">
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="25">
         <v>45740</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="25">
         <v>45746</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="25">
         <v>45763</v>
       </c>
-      <c r="K52" s="70" t="s">
+      <c r="K52" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="72"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="40" t="s">
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="19">
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="25">
         <v>45747</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="25">
         <v>45753</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="25">
         <v>45763</v>
       </c>
-      <c r="K54" s="70" t="s">
+      <c r="K54" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="71"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="67" t="s">
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="9">
         <v>45754</v>
       </c>
@@ -1857,165 +3053,165 @@
       <c r="J56" s="9">
         <v>45763</v>
       </c>
-      <c r="K56" s="73" t="s">
+      <c r="K56" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="40" t="s">
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="19">
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="25">
         <v>45754</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="25">
         <v>45760</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="25">
         <v>45763</v>
       </c>
-      <c r="K57" s="70" t="s">
+      <c r="K57" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="72"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="40" t="s">
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="19">
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="25">
         <v>45761</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="25">
         <v>45767</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="25">
         <v>45763</v>
       </c>
-      <c r="K59" s="70" t="s">
+      <c r="K59" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="71"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="40" t="s">
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="19">
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="25">
         <v>45768</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="25">
         <v>45774</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="25">
         <v>45781</v>
       </c>
-      <c r="K61" s="70" t="s">
+      <c r="K61" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="72"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="40" t="s">
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="19">
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="25">
         <v>45775</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="25">
         <v>45781</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J63" s="25">
         <v>45781</v>
       </c>
-      <c r="K63" s="70" t="s">
+      <c r="K63" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="71"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="67" t="s">
+      <c r="C65" s="72"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="9">
         <v>45782</v>
       </c>
@@ -2025,21 +3221,21 @@
       <c r="J65" s="9">
         <v>45781</v>
       </c>
-      <c r="K65" s="73" t="s">
+      <c r="K65" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="67" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="68"/>
-      <c r="G66" s="69"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
       <c r="H66" s="9">
         <v>45787</v>
       </c>
@@ -2051,6 +3247,153 @@
     </row>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="B52:D53"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="E54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="E48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B2:K2"/>
@@ -2075,153 +3418,6 @@
     <mergeCell ref="E13:G14"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="E48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B50:D51"/>
-    <mergeCell ref="E50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="B52:D53"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="B54:D55"/>
-    <mergeCell ref="E54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
